--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/10_Artvin_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/10_Artvin_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{435C96D8-F4D3-4708-80B3-D5AE6CC0910A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68934DD1-AA4A-49C1-852C-D67431762A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{E73394F7-CE32-41C0-AC81-9D0DF8024AD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{3E22A6C9-237F-4EA2-96F8-FE024A5E8393}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -953,15 +953,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A3B336EA-D4EA-4D95-9A7B-FDB14DC1AB5C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CFFD38B8-E34A-4726-B5B0-746A015562DF}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{A60D672C-83C8-40B6-9357-BBDF16FF92EC}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{D1D1B809-2492-47A3-93F9-0988DEDCBF57}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{12AC02E9-BC9D-4061-A8AE-233898438BC3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{7A0FAF33-AAC2-44BA-9A8E-5D90CB1462C1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4B7FC0C5-6878-45F3-922C-4BFBD0836EA7}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{9CA968AF-DC2F-4E74-A939-91F1425B4FA9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D8581D68-7F0A-4E03-9165-219A2492F118}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{48E6FF52-54B2-4EC1-979F-3A0B0BC32193}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{623EFF7E-575A-403B-BD51-E51F94D31CB4}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{28E2AD03-F331-4870-B798-F5464EE896E2}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{EBF4EDE3-B327-4149-9212-029C2B817C69}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{33003D56-C46D-4F1B-A2BC-5A9BAD001982}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C84E337B-9097-430A-8324-996FDEB0200F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{8FD362C9-70A6-4326-B6B1-34EA4F7EE109}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{0B8CAF36-CDB2-482B-B302-0F1472A3381D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CE4EB631-1C16-48A5-AD81-839E62310D29}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1331,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63EDEC6-5632-43E2-B791-9C4BC25E65DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977EFBE1-E23E-4D75-8CC7-6EBCD1F22C16}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECACBE62-E55F-41AE-BB11-7C3791BA766C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1584488-B888-45F0-87F9-902584A52EC7}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3865,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B0273-B2AC-40FD-A313-3171AF67B474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E1CBDB-23C4-4617-81E0-52A4448CB641}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5105,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1090BD-BA8A-4054-9AD2-F7B1A779E418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338D5C50-EF20-4791-B4AA-D4E302F11283}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6335,7 +6335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F951C00E-9D7C-4B72-AA71-AE8F9CE67C3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A2F4B5-5C62-4816-8DBE-F8C4C849EB31}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7622,7 +7622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708D0BF2-BB02-4885-9A4E-D529AC7316EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEA82EE-EBBF-4460-80B3-46952B46A236}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8905,7 +8905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC82FBF5-697A-4593-8F37-FCFE6978E36E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96586A15-105A-48A4-BD44-638D4FE13FB7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10188,7 +10188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBABFB9-DCE8-4F57-9B80-E5DB8332717C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8615451-2797-4209-991E-7E45649F4DA2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11471,7 +11471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEEB9C8-121F-41A9-8261-735485077C4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D93A9D-4156-4C2C-B65A-CEECCA187203}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12754,7 +12754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3ACA1-6A87-4F4B-B496-D383650A27E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B70A9E-4887-4359-8E0E-F2D2547DFD25}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14023,7 +14023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850824B6-7D37-4BCF-BB47-61D2E18D5664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0726B97-38A9-40FE-9030-DFDBEFC3DE8F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15292,7 +15292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1A1DF1-3C3B-4AFF-953E-E8D6F1812C2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCC415E-F94E-4131-9FDA-9CB6A46873F1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
